--- a/nepi/huro/idojaras_huro.xlsx
+++ b/nepi/huro/idojaras_huro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csala\OneDrive\Github\szekelydata\blog\nepi\huro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\blog\nepi\huro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A2315-D52C-4E99-B559-70C453ABF933}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E365E415-2FED-4A73-AEFD-2343D8E50F64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{3BDAD165-FA42-4F7C-B7E7-665FE160C822}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{3BDAD165-FA42-4F7C-B7E7-665FE160C822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
